--- a/PRODUCTOS/excel/sistemas_datos.xlsx
+++ b/PRODUCTOS/excel/sistemas_datos.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E1725A-CE66-4A69-8EC1-72B6D1B527AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="galvanizadas"/>
-    <sheet r:id="rId2" sheetId="2" name="desague"/>
-    <sheet r:id="rId3" sheetId="3" name="calefaccion"/>
-    <sheet r:id="rId4" sheetId="4" name="riego"/>
-    <sheet r:id="rId5" sheetId="5" name="agua"/>
-    <sheet r:id="rId6" sheetId="6" name="gas"/>
+    <sheet name="desague" sheetId="2" r:id="rId1"/>
+    <sheet name="calefaccion" sheetId="3" r:id="rId2"/>
+    <sheet name="riego" sheetId="4" r:id="rId3"/>
+    <sheet name="agua" sheetId="5" r:id="rId4"/>
+    <sheet name="gas" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -138,27 +143,32 @@
     <t>0001</t>
   </si>
   <si>
-    <t>Braganza</t>
-  </si>
-  <si>
     <t>PRODUCTOS\sistemas\img\0001_1.png</t>
   </si>
   <si>
     <t>0002</t>
   </si>
   <si>
-    <t>Expoxi y Galvanizados</t>
-  </si>
-  <si>
     <t>PRODUCTOS\sistemas\img\0002_1.png</t>
+  </si>
+  <si>
+    <t>Braganza epoxi</t>
+  </si>
+  <si>
+    <t>Dema epoxi</t>
+  </si>
+  <si>
+    <t>Braganza galvanizado</t>
+  </si>
+  <si>
+    <t>Dema galvanizado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +201,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -201,36 +224,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc000"/>
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70ad47"/>
+        <fgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5b9bd5"/>
+        <fgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffd966"/>
+        <fgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFa9d08e"/>
+        <fgColor rgb="FFA9D08E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9bc2e6"/>
+        <fgColor rgb="FF9BC2E6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -243,7 +266,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -273,10 +296,10 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -291,7 +314,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -303,7 +326,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -321,7 +344,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -340,10 +363,10 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -355,10 +378,66 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -369,131 +448,141 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -504,10 +593,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -545,71 +634,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,7 +726,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -660,11 +749,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -673,13 +762,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -689,7 +778,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -698,7 +787,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -707,7 +796,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -715,10 +804,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -783,61 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="37" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="38" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="43.14785714285715" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="27">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -845,14 +880,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="36.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -874,7 +909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>27</v>
       </c>
@@ -885,7 +920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>30</v>
       </c>
@@ -896,7 +931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>33</v>
       </c>
@@ -907,7 +942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -923,8 +958,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -932,14 +967,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="36.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -961,7 +996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -972,17 +1007,17 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
@@ -992,8 +1027,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1001,14 +1036,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="36.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="5.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -1029,6 +1064,87 @@
       <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1036,87 +1152,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="36.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A4:C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="36.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4"/>
@@ -1124,14 +1186,14 @@
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
@@ -1139,14 +1201,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4"/>
@@ -1154,25 +1216,37 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="13"/>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1181,7 +1255,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1190,7 +1264,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1199,16 +1273,16 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1217,7 +1291,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1226,7 +1300,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1235,7 +1309,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1244,7 +1318,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1253,7 +1327,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1262,7 +1336,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>

--- a/PRODUCTOS/excel/sistemas_datos.xlsx
+++ b/PRODUCTOS/excel/sistemas_datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E1725A-CE66-4A69-8EC1-72B6D1B527AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52E9B17-D108-4A2F-9EFC-C180901D66A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="3210" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="desague" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>0013</t>
   </si>
   <si>
-    <t>Reguladore</t>
-  </si>
-  <si>
     <t>PRODUCTOS\sistemas\img\0013_1.png</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Dema galvanizado</t>
+  </si>
+  <si>
+    <t>Reguladores</t>
   </si>
 </sst>
 </file>
@@ -450,15 +450,6 @@
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -522,15 +513,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,6 +551,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -878,79 +878,81 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="24" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="24" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="24" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="24" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -965,62 +967,64 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1034,35 +1038,37 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1077,74 +1083,74 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="37" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
+      <c r="B9" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1159,193 +1165,194 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A4:C5"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PRODUCTOS/excel/sistemas_datos.xlsx
+++ b/PRODUCTOS/excel/sistemas_datos.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52E9B17-D108-4A2F-9EFC-C180901D66A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD181F-722D-41F1-A5F2-CDC1EE25551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="3210" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="desague" sheetId="2" r:id="rId1"/>
-    <sheet name="calefaccion" sheetId="3" r:id="rId2"/>
-    <sheet name="riego" sheetId="4" r:id="rId3"/>
-    <sheet name="agua" sheetId="5" r:id="rId4"/>
-    <sheet name="gas" sheetId="6" r:id="rId5"/>
+    <sheet name="desague_0000" sheetId="2" r:id="rId1"/>
+    <sheet name="calefaccion_1000" sheetId="3" r:id="rId2"/>
+    <sheet name="riego_2000" sheetId="4" r:id="rId3"/>
+    <sheet name="agua_3000" sheetId="5" r:id="rId4"/>
+    <sheet name="gas_4000" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -35,66 +35,24 @@
     <t>img1</t>
   </si>
   <si>
-    <t>0013</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\sistemas\img\0013_1.png</t>
-  </si>
-  <si>
-    <t>0014</t>
-  </si>
-  <si>
     <t>Sigas</t>
   </si>
   <si>
-    <t>PRODUCTOS\sistemas\img\0014_1.png</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
     <t>Acquasystem</t>
   </si>
   <si>
-    <t>PRODUCTOS\sistemas\img\0011_1.png</t>
-  </si>
-  <si>
-    <t>0012</t>
-  </si>
-  <si>
     <t>Tigre</t>
   </si>
   <si>
-    <t>PRODUCTOS\sistemas\img\0012_1.png</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
     <t>Rainbird</t>
   </si>
   <si>
-    <t>PRODUCTOS\sistemas\img\0010_1.png</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
     <t>Hidroflex</t>
   </si>
   <si>
-    <t>PRODUCTOS\sistemas\img\0008_1.png</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
     <t>Tubotherm</t>
   </si>
   <si>
-    <t>PRODUCTOS\sistemas\img\0009_1.png</t>
-  </si>
-  <si>
     <t>0003</t>
   </si>
   <si>
@@ -137,18 +95,6 @@
     <t>PRODUCTOS\sistemas\img\0007_1.png</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\sistemas\img\0001_1.png</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\sistemas\img\0002_1.png</t>
-  </si>
-  <si>
     <t>Braganza epoxi</t>
   </si>
   <si>
@@ -162,13 +108,79 @@
   </si>
   <si>
     <t>Reguladores</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>4003</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\1000_1.png</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\1001_1.png</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\2000_1.png</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\3000_1.png</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\3001_1.png</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\3002_1.png</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\3003_1.png</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\4000_1.png</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\4001_1.png</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\4002_1.png</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\sistemas\img\4003_1.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +222,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -448,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -522,22 +540,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,7 +887,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -890,69 +899,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +977,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,36 +988,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,7 +1048,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,25 +1059,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1093,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,64 +1104,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>13</v>
+      <c r="A3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>38</v>
+      <c r="A4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>40</v>
+      <c r="A5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
+      <c r="B9" s="34"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1164,8 +1174,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,13 +1188,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
@@ -1194,13 +1204,13 @@
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1208,14 +1218,14 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>7</v>
+      <c r="A3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1223,14 +1233,14 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>38</v>
+      <c r="B4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1238,14 +1248,14 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>40</v>
+      <c r="A5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1282,7 +1292,7 @@
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="36"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1352,6 +1362,7 @@
       <c r="G16" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
